--- a/Code/Results/Cases/Case_5_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,34 +409,40 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.0933868639345</v>
+        <v>21.59304167760812</v>
       </c>
       <c r="C2">
-        <v>24.57481978135165</v>
+        <v>15.31426431094634</v>
       </c>
       <c r="D2">
-        <v>3.835715286815603</v>
+        <v>9.641468400650767</v>
       </c>
       <c r="E2">
-        <v>30.59358480804828</v>
+        <v>30.2733572918578</v>
       </c>
       <c r="F2">
-        <v>40.15783868747212</v>
+        <v>63.36623562454828</v>
       </c>
       <c r="I2">
-        <v>23.67084953944917</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.21607786395405</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -444,34 +450,40 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.21050997632087</v>
+        <v>19.94182763512281</v>
       </c>
       <c r="C3">
-        <v>22.75468881860019</v>
+        <v>14.1522413766034</v>
       </c>
       <c r="D3">
-        <v>3.819550486509269</v>
+        <v>9.134418679190707</v>
       </c>
       <c r="E3">
-        <v>28.21350208029774</v>
+        <v>27.9020108004638</v>
       </c>
       <c r="F3">
-        <v>37.61249947155756</v>
+        <v>59.23323129759047</v>
       </c>
       <c r="I3">
-        <v>22.56375921094119</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.77781471413953</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -479,34 +491,40 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.00159226546623</v>
+        <v>18.88914723600649</v>
       </c>
       <c r="C4">
-        <v>21.59002981734449</v>
+        <v>13.41436208989299</v>
       </c>
       <c r="D4">
-        <v>3.817377804221991</v>
+        <v>8.819432297675354</v>
       </c>
       <c r="E4">
-        <v>26.70350362309474</v>
+        <v>26.40010116938513</v>
       </c>
       <c r="F4">
-        <v>36.03443595865087</v>
+        <v>56.63163783030407</v>
       </c>
       <c r="I4">
-        <v>21.90029463918222</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.86148923376335</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -514,34 +532,40 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.49523208493835</v>
+        <v>18.4498815355349</v>
       </c>
       <c r="C5">
-        <v>21.10308632439385</v>
+        <v>13.10708760521564</v>
       </c>
       <c r="D5">
-        <v>3.818218030166819</v>
+        <v>8.690079485893932</v>
       </c>
       <c r="E5">
-        <v>26.07500037424564</v>
+        <v>25.7754799479656</v>
       </c>
       <c r="F5">
-        <v>35.38750054945925</v>
+        <v>55.55490008413953</v>
       </c>
       <c r="I5">
-        <v>21.63389971791739</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.47923784006787</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -549,34 +573,40 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.41031113664847</v>
+        <v>18.37630625208804</v>
       </c>
       <c r="C6">
-        <v>21.02147130604923</v>
+        <v>13.05565533612477</v>
       </c>
       <c r="D6">
-        <v>3.818455632707478</v>
+        <v>8.668539146370675</v>
       </c>
       <c r="E6">
-        <v>25.96981745180954</v>
+        <v>25.67097454377412</v>
       </c>
       <c r="F6">
-        <v>35.27984763048097</v>
+        <v>55.37509964952109</v>
       </c>
       <c r="I6">
-        <v>21.58990268110069</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.41521825015227</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -584,34 +614,40 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.99481939149057</v>
+        <v>18.88326545349754</v>
       </c>
       <c r="C7">
-        <v>21.58351328575768</v>
+        <v>13.41024528182172</v>
       </c>
       <c r="D7">
-        <v>3.817382429144286</v>
+        <v>8.817691891332354</v>
       </c>
       <c r="E7">
-        <v>26.69508187479827</v>
+        <v>26.39172951805535</v>
       </c>
       <c r="F7">
-        <v>36.025726674125</v>
+        <v>56.61718407073274</v>
       </c>
       <c r="I7">
-        <v>21.89668597225606</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.85637045368597</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -619,34 +655,40 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.45485768460938</v>
+        <v>21.03142150285703</v>
       </c>
       <c r="C8">
-        <v>23.95669608088348</v>
+        <v>14.91837085660991</v>
       </c>
       <c r="D8">
-        <v>3.828391022924376</v>
+        <v>9.467338775773149</v>
       </c>
       <c r="E8">
-        <v>29.7824147288543</v>
+        <v>29.46456594880035</v>
       </c>
       <c r="F8">
-        <v>39.2832664855305</v>
+        <v>61.95403868709879</v>
       </c>
       <c r="I8">
-        <v>23.2856423930013</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.72674685649318</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -654,34 +696,40 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.88249317646171</v>
+        <v>24.96425336208849</v>
       </c>
       <c r="C9">
-        <v>28.26283978648428</v>
+        <v>17.70654388033175</v>
       </c>
       <c r="D9">
-        <v>3.922811882531668</v>
+        <v>10.71814087144553</v>
       </c>
       <c r="E9">
-        <v>35.50160705828404</v>
+        <v>35.18318865991583</v>
       </c>
       <c r="F9">
-        <v>45.66292707753004</v>
+        <v>71.9539283344378</v>
       </c>
       <c r="I9">
-        <v>26.14959566186047</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>22.15705002084839</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -689,34 +737,40 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.93167073431392</v>
+        <v>27.73256036606478</v>
       </c>
       <c r="C10">
-        <v>31.25850528200017</v>
+        <v>19.69429811769869</v>
       </c>
       <c r="D10">
-        <v>4.054561651226329</v>
+        <v>11.63585970898972</v>
       </c>
       <c r="E10">
-        <v>39.58740468718425</v>
+        <v>39.29862998329967</v>
       </c>
       <c r="F10">
-        <v>50.55507528184325</v>
+        <v>79.10799772574991</v>
       </c>
       <c r="I10">
-        <v>28.37084929381998</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>24.57787730894816</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -724,34 +778,40 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.28553160756348</v>
+        <v>28.98065620614887</v>
       </c>
       <c r="C11">
-        <v>32.5976577575646</v>
+        <v>20.59843711223168</v>
       </c>
       <c r="D11">
-        <v>4.132860945692649</v>
+        <v>12.05771808747229</v>
       </c>
       <c r="E11">
-        <v>41.44775421869307</v>
+        <v>41.1840259010934</v>
       </c>
       <c r="F11">
-        <v>52.78008571945626</v>
+        <v>82.4063412718797</v>
       </c>
       <c r="I11">
-        <v>29.62941589744783</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>25.67139915768478</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -759,34 +819,40 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.79461794548642</v>
+        <v>29.45337419359294</v>
       </c>
       <c r="C12">
-        <v>33.10277653034032</v>
+        <v>20.94229306036209</v>
       </c>
       <c r="D12">
-        <v>4.165644311971568</v>
+        <v>12.21866357100155</v>
       </c>
       <c r="E12">
-        <v>42.1555082492444</v>
+        <v>41.90361994712028</v>
       </c>
       <c r="F12">
-        <v>53.62496791032869</v>
+        <v>83.67299602432452</v>
       </c>
       <c r="I12">
-        <v>30.10895581809368</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>26.08595073056876</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -794,34 +860,40 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.68511463035384</v>
+        <v>29.35152915667429</v>
       </c>
       <c r="C13">
-        <v>32.99405227644008</v>
+        <v>20.86814303788026</v>
       </c>
       <c r="D13">
-        <v>4.158435564016044</v>
+        <v>12.18393669518751</v>
       </c>
       <c r="E13">
-        <v>42.00287685794817</v>
+        <v>41.74831914079132</v>
       </c>
       <c r="F13">
-        <v>53.44285832561009</v>
+        <v>83.40006264277098</v>
       </c>
       <c r="I13">
-        <v>30.00551941932093</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>25.99661910139172</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -829,34 +901,40 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.327478543826</v>
+        <v>29.01953358380459</v>
       </c>
       <c r="C14">
-        <v>32.63924469311189</v>
+        <v>20.62668654006055</v>
       </c>
       <c r="D14">
-        <v>4.135492086722946</v>
+        <v>12.07093123643493</v>
       </c>
       <c r="E14">
-        <v>41.505895267057</v>
+        <v>41.24308866376175</v>
       </c>
       <c r="F14">
-        <v>52.84953192485706</v>
+        <v>82.51049576959009</v>
       </c>
       <c r="I14">
-        <v>29.66879901063957</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>25.70548469757895</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -864,34 +942,40 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.10798873906199</v>
+        <v>28.81624777060955</v>
       </c>
       <c r="C15">
-        <v>32.42170362150164</v>
+        <v>20.47903195769796</v>
       </c>
       <c r="D15">
-        <v>4.121862849679295</v>
+        <v>12.00188811691313</v>
       </c>
       <c r="E15">
-        <v>41.20201192465097</v>
+        <v>40.93448555360511</v>
       </c>
       <c r="F15">
-        <v>52.48648756258847</v>
+        <v>81.96592203499313</v>
       </c>
       <c r="I15">
-        <v>29.46298221179352</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>25.52727071743505</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -899,34 +983,40 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.84261905913581</v>
+        <v>27.65090342008791</v>
       </c>
       <c r="C16">
-        <v>31.17062582716505</v>
+        <v>19.63532633324441</v>
       </c>
       <c r="D16">
-        <v>4.049854116794573</v>
+        <v>11.60842270895294</v>
       </c>
       <c r="E16">
-        <v>39.46610115321222</v>
+        <v>39.17597453473748</v>
       </c>
       <c r="F16">
-        <v>50.40984441057324</v>
+        <v>78.89604505422719</v>
       </c>
       <c r="I16">
-        <v>28.29797464048445</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>24.50638173556976</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -934,34 +1024,40 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.05860309808453</v>
+        <v>26.93419690039741</v>
       </c>
       <c r="C17">
-        <v>30.3979805838351</v>
+        <v>19.11864717995649</v>
       </c>
       <c r="D17">
-        <v>4.010704813023296</v>
+        <v>11.36851430809608</v>
       </c>
       <c r="E17">
-        <v>38.40351836329736</v>
+        <v>38.10289033103235</v>
       </c>
       <c r="F17">
-        <v>49.13725846726459</v>
+        <v>77.03785779027251</v>
       </c>
       <c r="I17">
-        <v>27.71192358097856</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>23.87910393885343</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -969,34 +1065,40 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.60444523337105</v>
+        <v>26.52078481924161</v>
       </c>
       <c r="C18">
-        <v>29.95125367590061</v>
+        <v>18.82134745446214</v>
       </c>
       <c r="D18">
-        <v>3.98988174133207</v>
+        <v>11.23089487966354</v>
       </c>
       <c r="E18">
-        <v>37.79228608977173</v>
+        <v>37.48665101656532</v>
       </c>
       <c r="F18">
-        <v>48.40507953401087</v>
+        <v>75.96789576649758</v>
       </c>
       <c r="I18">
-        <v>27.37796679604086</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>23.51746785439273</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1004,34 +1106,40 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.45009180098551</v>
+        <v>26.38056327375363</v>
       </c>
       <c r="C19">
-        <v>29.79956361044129</v>
+        <v>18.72062761530223</v>
       </c>
       <c r="D19">
-        <v>3.983108932652081</v>
+        <v>11.18434842765967</v>
       </c>
       <c r="E19">
-        <v>37.58524326941316</v>
+        <v>37.27807397582684</v>
       </c>
       <c r="F19">
-        <v>48.15707679745048</v>
+        <v>75.6053228627739</v>
       </c>
       <c r="I19">
-        <v>27.26540021296046</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>23.3948385464467</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1039,34 +1147,40 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.1423877479749</v>
+        <v>27.01060298106055</v>
       </c>
       <c r="C20">
-        <v>30.48046123174095</v>
+        <v>19.17365148088428</v>
       </c>
       <c r="D20">
-        <v>4.014693673676234</v>
+        <v>11.39401120416312</v>
       </c>
       <c r="E20">
-        <v>38.51661928110156</v>
+        <v>38.21699817203446</v>
       </c>
       <c r="F20">
-        <v>49.27273525540704</v>
+        <v>77.23576303470962</v>
       </c>
       <c r="I20">
-        <v>27.77397871847517</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>23.94595596462617</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1074,34 +1188,40 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.43261143366109</v>
+        <v>29.11703012765711</v>
       </c>
       <c r="C21">
-        <v>32.74350124496406</v>
+        <v>20.69755387584938</v>
       </c>
       <c r="D21">
-        <v>4.142141693175064</v>
+        <v>12.10408570414778</v>
       </c>
       <c r="E21">
-        <v>41.65175316457539</v>
+        <v>41.39129834494867</v>
       </c>
       <c r="F21">
-        <v>53.02372066810902</v>
+        <v>82.7717090125128</v>
       </c>
       <c r="I21">
-        <v>29.76760824966426</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>25.79097062298244</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1109,34 +1229,40 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.90926451707369</v>
+        <v>30.49543773057972</v>
       </c>
       <c r="C22">
-        <v>34.21188038722396</v>
+        <v>21.70319134543204</v>
       </c>
       <c r="D22">
-        <v>4.249005857543734</v>
+        <v>12.57555725570749</v>
       </c>
       <c r="E22">
-        <v>43.72198705050933</v>
+        <v>43.50146282583914</v>
       </c>
       <c r="F22">
-        <v>55.49041121262962</v>
+        <v>86.46650090988958</v>
       </c>
       <c r="I22">
-        <v>31.17080949188745</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>27.00057812851015</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1144,34 +1270,40 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.12251267559765</v>
+        <v>29.75888895442108</v>
       </c>
       <c r="C23">
-        <v>33.42858582599082</v>
+        <v>21.16495514144813</v>
       </c>
       <c r="D23">
-        <v>4.187749636892796</v>
+        <v>12.32300470981721</v>
       </c>
       <c r="E23">
-        <v>42.6138667285635</v>
+        <v>42.3703927714047</v>
       </c>
       <c r="F23">
-        <v>54.17150805996602</v>
+        <v>84.4918503549235</v>
       </c>
       <c r="I23">
-        <v>30.41962741753935</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>26.35398920460922</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1179,34 +1311,40 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.10451943514816</v>
+        <v>26.97606417422989</v>
       </c>
       <c r="C24">
-        <v>30.44317968971161</v>
+        <v>19.14878493366473</v>
       </c>
       <c r="D24">
-        <v>4.012885099079433</v>
+        <v>11.38248314084339</v>
       </c>
       <c r="E24">
-        <v>38.46548762939295</v>
+        <v>38.16540812820642</v>
       </c>
       <c r="F24">
-        <v>49.21148808959018</v>
+        <v>77.14629553612012</v>
       </c>
       <c r="I24">
-        <v>27.74591442155407</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>23.91573540805917</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1214,39 +1352,51 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.72364271571563</v>
+        <v>23.92579209539748</v>
       </c>
       <c r="C25">
-        <v>27.13109501900297</v>
+        <v>16.966558229845</v>
       </c>
       <c r="D25">
-        <v>3.887759364502648</v>
+        <v>10.38119193287375</v>
       </c>
       <c r="E25">
-        <v>33.98230400871086</v>
+        <v>33.65999343183493</v>
       </c>
       <c r="F25">
-        <v>43.87434303732963</v>
+        <v>69.2910619455364</v>
       </c>
       <c r="I25">
-        <v>25.35775436988457</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>21.25037893311682</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_33/res_line/loading_percent.xlsx
@@ -421,19 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.59304167760812</v>
+        <v>25.36187159538041</v>
       </c>
       <c r="C2">
-        <v>15.31426431094634</v>
+        <v>18.78316758016598</v>
       </c>
       <c r="D2">
-        <v>9.641468400650767</v>
+        <v>3.667102608023634</v>
       </c>
       <c r="E2">
-        <v>30.2733572918578</v>
+        <v>30.13972387202399</v>
       </c>
       <c r="F2">
-        <v>63.36623562454828</v>
+        <v>17.20286171920608</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.21607786395405</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -454,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.72255374862494</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.94182763512281</v>
+        <v>23.68962024393795</v>
       </c>
       <c r="C3">
-        <v>14.1522413766034</v>
+        <v>17.64466769346562</v>
       </c>
       <c r="D3">
-        <v>9.134418679190707</v>
+        <v>3.549203684935264</v>
       </c>
       <c r="E3">
-        <v>27.9020108004638</v>
+        <v>27.92499286604802</v>
       </c>
       <c r="F3">
-        <v>59.23323129759047</v>
+        <v>16.47776860560779</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.77781471413953</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -495,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.431428790866</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.88914723600649</v>
+        <v>22.60492527918622</v>
       </c>
       <c r="C4">
-        <v>13.41436208989299</v>
+        <v>16.90933012325679</v>
       </c>
       <c r="D4">
-        <v>8.819432297675354</v>
+        <v>3.47515541217814</v>
       </c>
       <c r="E4">
-        <v>26.40010116938513</v>
+        <v>26.50354375359367</v>
       </c>
       <c r="F4">
-        <v>56.63163783030407</v>
+        <v>16.05223206857258</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.86148923376335</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -536,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>12.27959786169246</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.4498815355349</v>
+        <v>22.14825074560926</v>
       </c>
       <c r="C5">
-        <v>13.10708760521564</v>
+        <v>16.60059396399712</v>
       </c>
       <c r="D5">
-        <v>8.690079485893932</v>
+        <v>3.444591253825555</v>
       </c>
       <c r="E5">
-        <v>25.7754799479656</v>
+        <v>25.90840315500333</v>
       </c>
       <c r="F5">
-        <v>55.55490008413953</v>
+        <v>15.88393292375906</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.47923784006787</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -577,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>12.22427252772083</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.37630625208804</v>
+        <v>22.07153306559324</v>
       </c>
       <c r="C6">
-        <v>13.05565533612477</v>
+        <v>16.54878209790365</v>
       </c>
       <c r="D6">
-        <v>8.668539146370675</v>
+        <v>3.439493503015288</v>
       </c>
       <c r="E6">
-        <v>25.67097454377412</v>
+        <v>25.80860973672094</v>
       </c>
       <c r="F6">
-        <v>55.37509964952109</v>
+        <v>15.85630028810583</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.41521825015227</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -618,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>12.21547393113618</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.88326545349754</v>
+        <v>22.5988258385094</v>
       </c>
       <c r="C7">
-        <v>13.41024528182172</v>
+        <v>16.90520308125529</v>
       </c>
       <c r="D7">
-        <v>8.817691891332354</v>
+        <v>3.474744748061127</v>
       </c>
       <c r="E7">
-        <v>26.39172951805535</v>
+        <v>26.49558231965699</v>
       </c>
       <c r="F7">
-        <v>56.61718407073274</v>
+        <v>16.04994142332284</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.85637045368597</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -659,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12.27882553987298</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.03142150285703</v>
+        <v>24.79724513238602</v>
       </c>
       <c r="C8">
-        <v>14.91837085660991</v>
+        <v>18.39816421105845</v>
       </c>
       <c r="D8">
-        <v>9.467338775773149</v>
+        <v>3.626810743639836</v>
       </c>
       <c r="E8">
-        <v>29.46456594880035</v>
+        <v>29.38861838723011</v>
       </c>
       <c r="F8">
-        <v>61.95403868709879</v>
+        <v>16.94886448994903</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.72674685649318</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -700,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.61646505068276</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.96425336208849</v>
+        <v>28.65338670781746</v>
       </c>
       <c r="C9">
-        <v>17.70654388033175</v>
+        <v>21.03733218039091</v>
       </c>
       <c r="D9">
-        <v>10.71814087144553</v>
+        <v>3.910833501597831</v>
       </c>
       <c r="E9">
-        <v>35.18318865991583</v>
+        <v>34.59291799026485</v>
       </c>
       <c r="F9">
-        <v>71.9539283344378</v>
+        <v>18.86098593319469</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.15705002084839</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -741,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.50010542385728</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.73256036606478</v>
+        <v>31.21663200655024</v>
       </c>
       <c r="C10">
-        <v>19.69429811769869</v>
+        <v>22.80155215208464</v>
       </c>
       <c r="D10">
-        <v>11.63585970898972</v>
+        <v>4.109793125864409</v>
       </c>
       <c r="E10">
-        <v>39.29862998329967</v>
+        <v>38.16138516236101</v>
       </c>
       <c r="F10">
-        <v>79.10799772574991</v>
+        <v>20.44542078417879</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.57787730894816</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -782,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.31427006950555</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.98065620614887</v>
+        <v>32.32603306422291</v>
       </c>
       <c r="C11">
-        <v>20.59843711223168</v>
+        <v>23.56688215889513</v>
       </c>
       <c r="D11">
-        <v>12.05771808747229</v>
+        <v>4.198057044315006</v>
       </c>
       <c r="E11">
-        <v>41.1840259010934</v>
+        <v>39.73728185718615</v>
       </c>
       <c r="F11">
-        <v>82.4063412718797</v>
+        <v>21.29484737048227</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.67139915768478</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -823,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.96079253444854</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.45337419359294</v>
+        <v>32.73816752579622</v>
       </c>
       <c r="C12">
-        <v>20.94229306036209</v>
+        <v>23.85142181689534</v>
       </c>
       <c r="D12">
-        <v>12.21866357100155</v>
+        <v>4.231151705066713</v>
       </c>
       <c r="E12">
-        <v>41.90361994712028</v>
+        <v>40.32797812293967</v>
       </c>
       <c r="F12">
-        <v>83.67299602432452</v>
+        <v>21.61600614998272</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.08595073056876</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -864,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.20565789917911</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.35152915667429</v>
+        <v>32.64975859882034</v>
       </c>
       <c r="C13">
-        <v>20.86814303788026</v>
+        <v>23.79037422394653</v>
       </c>
       <c r="D13">
-        <v>12.18393669518751</v>
+        <v>4.224038861108672</v>
       </c>
       <c r="E13">
-        <v>41.74831914079132</v>
+        <v>40.20101749717757</v>
       </c>
       <c r="F13">
-        <v>83.40006264277098</v>
+        <v>21.54685861497849</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.99661910139172</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -905,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.15291748331597</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.01953358380459</v>
+        <v>32.36009832691859</v>
       </c>
       <c r="C14">
-        <v>20.62668654006055</v>
+        <v>23.59039659178791</v>
       </c>
       <c r="D14">
-        <v>12.07093123643493</v>
+        <v>4.200786375122339</v>
       </c>
       <c r="E14">
-        <v>41.24308866376175</v>
+        <v>39.78599556063121</v>
       </c>
       <c r="F14">
-        <v>82.51049576959009</v>
+        <v>21.32127844886119</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.70548469757895</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -946,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.98093606777855</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.81624777060955</v>
+        <v>32.18164032250434</v>
       </c>
       <c r="C15">
-        <v>20.47903195769796</v>
+        <v>23.46722032222329</v>
       </c>
       <c r="D15">
-        <v>12.00188811691313</v>
+        <v>4.186500604036348</v>
       </c>
       <c r="E15">
-        <v>40.93448555360511</v>
+        <v>39.53101752026198</v>
       </c>
       <c r="F15">
-        <v>81.96592203499313</v>
+        <v>21.18304334203103</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.52727071743505</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -987,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.87560222826817</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.65090342008791</v>
+        <v>31.14300474444728</v>
       </c>
       <c r="C16">
-        <v>19.63532633324441</v>
+        <v>22.75079327340473</v>
       </c>
       <c r="D16">
-        <v>11.60842270895294</v>
+        <v>4.103979078266648</v>
       </c>
       <c r="E16">
-        <v>39.17597453473748</v>
+        <v>38.05750480030047</v>
       </c>
       <c r="F16">
-        <v>78.89604505422719</v>
+        <v>20.38983120958805</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.50638173556976</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1028,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.27201665916555</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.93419690039741</v>
+        <v>30.49144733876656</v>
       </c>
       <c r="C17">
-        <v>19.11864717995649</v>
+        <v>22.30180444326484</v>
       </c>
       <c r="D17">
-        <v>11.36851430809608</v>
+        <v>4.052774197851558</v>
       </c>
       <c r="E17">
-        <v>38.10289033103235</v>
+        <v>37.14191444472407</v>
       </c>
       <c r="F17">
-        <v>77.03785779027251</v>
+        <v>19.91176280583495</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.87910393885343</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1069,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.05212850216342</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.52078481924161</v>
+        <v>30.11134693216889</v>
       </c>
       <c r="C18">
-        <v>18.82134745446214</v>
+        <v>22.04004847037259</v>
       </c>
       <c r="D18">
-        <v>11.23089487966354</v>
+        <v>4.023111407783546</v>
       </c>
       <c r="E18">
-        <v>37.48665101656532</v>
+        <v>36.61077703905606</v>
       </c>
       <c r="F18">
-        <v>75.96789576649758</v>
+        <v>19.68744503489814</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.51746785439273</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1110,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.93110318446042</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.38056327375363</v>
+        <v>29.98172905575073</v>
       </c>
       <c r="C19">
-        <v>18.72062761530223</v>
+        <v>21.95081757306326</v>
       </c>
       <c r="D19">
-        <v>11.18434842765967</v>
+        <v>4.013032105900112</v>
       </c>
       <c r="E19">
-        <v>37.27807397582684</v>
+        <v>36.430146347254</v>
       </c>
       <c r="F19">
-        <v>75.6053228627739</v>
+        <v>19.6117782739293</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.3948385464467</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1151,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.89064877444195</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.01060298106055</v>
+        <v>30.56135840668503</v>
       </c>
       <c r="C20">
-        <v>19.17365148088428</v>
+        <v>22.34996278246545</v>
       </c>
       <c r="D20">
-        <v>11.39401120416312</v>
+        <v>4.058246952476308</v>
       </c>
       <c r="E20">
-        <v>38.21699817203446</v>
+        <v>37.23984263539567</v>
       </c>
       <c r="F20">
-        <v>77.23576303470962</v>
+        <v>19.95414440513955</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.94595596462617</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1192,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.07477657304353</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.11703012765711</v>
+        <v>32.44539345561694</v>
       </c>
       <c r="C21">
-        <v>20.69755387584938</v>
+        <v>23.64927728798787</v>
       </c>
       <c r="D21">
-        <v>12.10408570414778</v>
+        <v>4.207625149968111</v>
       </c>
       <c r="E21">
-        <v>41.39129834494867</v>
+        <v>39.90805550900862</v>
       </c>
       <c r="F21">
-        <v>82.7717090125128</v>
+        <v>21.38754917194913</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.79097062298244</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1233,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.03144886041109</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.49543773057972</v>
+        <v>33.63034798142272</v>
       </c>
       <c r="C22">
-        <v>21.70319134543204</v>
+        <v>24.467762828175</v>
       </c>
       <c r="D22">
-        <v>12.57555725570749</v>
+        <v>4.303335265980405</v>
       </c>
       <c r="E22">
-        <v>43.50146282583914</v>
+        <v>41.61698786295596</v>
       </c>
       <c r="F22">
-        <v>86.46650090988958</v>
+        <v>22.32154938187185</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.00057812851015</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1274,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.74439270330418</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.75888895442108</v>
+        <v>33.0020966618235</v>
       </c>
       <c r="C23">
-        <v>21.16495514144813</v>
+        <v>24.03369893303744</v>
       </c>
       <c r="D23">
-        <v>12.32300470981721</v>
+        <v>4.252429302636441</v>
       </c>
       <c r="E23">
-        <v>42.3703927714047</v>
+        <v>40.70781262930205</v>
       </c>
       <c r="F23">
-        <v>84.4918503549235</v>
+        <v>21.82325798658896</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>26.35398920460922</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1315,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.36379688885591</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.97606417422989</v>
+        <v>30.52976879234449</v>
       </c>
       <c r="C24">
-        <v>19.14878493366473</v>
+        <v>22.32820169814326</v>
       </c>
       <c r="D24">
-        <v>11.38248314084339</v>
+        <v>4.055773418604816</v>
       </c>
       <c r="E24">
-        <v>38.16540812820642</v>
+        <v>37.19558415843304</v>
       </c>
       <c r="F24">
-        <v>77.14629553612012</v>
+        <v>19.93457834027493</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.91573540805917</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1356,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.0645280278987</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.92579209539748</v>
+        <v>27.65818390843043</v>
       </c>
       <c r="C25">
-        <v>16.966558229845</v>
+        <v>20.35422568467486</v>
       </c>
       <c r="D25">
-        <v>10.38119193287375</v>
+        <v>3.835641781478893</v>
       </c>
       <c r="E25">
-        <v>33.65999343183493</v>
+        <v>33.23225014274492</v>
       </c>
       <c r="F25">
-        <v>69.2910619455364</v>
+        <v>18.32857825606559</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.25037893311682</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1397,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.23635424948294</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_33/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.36187159538041</v>
+        <v>15.20717213437361</v>
       </c>
       <c r="C2">
-        <v>18.78316758016598</v>
+        <v>11.23098386416958</v>
       </c>
       <c r="D2">
-        <v>3.667102608023634</v>
+        <v>3.691276806880144</v>
       </c>
       <c r="E2">
-        <v>30.13972387202399</v>
+        <v>16.58230678704313</v>
       </c>
       <c r="F2">
-        <v>17.20286171920608</v>
+        <v>19.73925079067827</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.72255374862494</v>
+        <v>17.46919510004873</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.68962024393795</v>
+        <v>14.3869011330943</v>
       </c>
       <c r="C3">
-        <v>17.64466769346562</v>
+        <v>10.61409342803636</v>
       </c>
       <c r="D3">
-        <v>3.549203684935264</v>
+        <v>3.65097749453512</v>
       </c>
       <c r="E3">
-        <v>27.92499286604802</v>
+        <v>15.63480355221651</v>
       </c>
       <c r="F3">
-        <v>16.47776860560779</v>
+        <v>19.73891381041926</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.431428790866</v>
+        <v>17.54996281088463</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.60492527918622</v>
+        <v>13.85872582943154</v>
       </c>
       <c r="C4">
-        <v>16.90933012325679</v>
+        <v>10.21494742836907</v>
       </c>
       <c r="D4">
-        <v>3.47515541217814</v>
+        <v>3.626050790119419</v>
       </c>
       <c r="E4">
-        <v>26.50354375359367</v>
+        <v>15.02787072369468</v>
       </c>
       <c r="F4">
-        <v>16.05223206857258</v>
+        <v>19.74890707209335</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.27959786169246</v>
+        <v>17.6074872766523</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.14825074560926</v>
+        <v>13.63750985203694</v>
       </c>
       <c r="C5">
-        <v>16.60059396399712</v>
+        <v>10.04725985989433</v>
       </c>
       <c r="D5">
-        <v>3.444591253825555</v>
+        <v>3.615854635603046</v>
       </c>
       <c r="E5">
-        <v>25.90840315500333</v>
+        <v>14.77448087684881</v>
       </c>
       <c r="F5">
-        <v>15.88393292375906</v>
+        <v>19.75552969658342</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.22427252772083</v>
+        <v>17.63290483321494</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.07153306559324</v>
+        <v>13.60042211023479</v>
       </c>
       <c r="C6">
-        <v>16.54878209790365</v>
+        <v>10.01911457157782</v>
       </c>
       <c r="D6">
-        <v>3.439493503015288</v>
+        <v>3.61415948184738</v>
       </c>
       <c r="E6">
-        <v>25.80860973672094</v>
+        <v>14.73204855493091</v>
       </c>
       <c r="F6">
-        <v>15.85630028810583</v>
+        <v>19.75678291737364</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.21547393113618</v>
+        <v>17.63724417227236</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.5988258385094</v>
+        <v>13.8557663731598</v>
       </c>
       <c r="C7">
-        <v>16.90520308125529</v>
+        <v>10.21270617651269</v>
       </c>
       <c r="D7">
-        <v>3.474744748061127</v>
+        <v>3.625913426264311</v>
       </c>
       <c r="E7">
-        <v>26.49558231965699</v>
+        <v>15.02447756294644</v>
       </c>
       <c r="F7">
-        <v>16.04994142332284</v>
+        <v>19.7489860829959</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.27882553987298</v>
+        <v>17.60782209203203</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.79724513238602</v>
+        <v>14.92953414443551</v>
       </c>
       <c r="C8">
-        <v>18.39816421105845</v>
+        <v>11.02255680238469</v>
       </c>
       <c r="D8">
-        <v>3.626810743639836</v>
+        <v>3.677424094981955</v>
       </c>
       <c r="E8">
-        <v>29.38861838723011</v>
+        <v>16.26097475304845</v>
       </c>
       <c r="F8">
-        <v>16.94886448994903</v>
+        <v>19.73700978143365</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.61646505068276</v>
+        <v>17.49538620089033</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.65338670781746</v>
+        <v>16.83407210579252</v>
       </c>
       <c r="C9">
-        <v>21.03733218039091</v>
+        <v>12.44595959867729</v>
       </c>
       <c r="D9">
-        <v>3.910833501597831</v>
+        <v>3.776655678919636</v>
       </c>
       <c r="E9">
-        <v>34.59291799026485</v>
+        <v>18.59159515867276</v>
       </c>
       <c r="F9">
-        <v>18.86098593319469</v>
+        <v>19.7949446420826</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.50010542385728</v>
+        <v>17.33865376030681</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.21663200655024</v>
+        <v>18.1039505849988</v>
       </c>
       <c r="C10">
-        <v>22.80155215208464</v>
+        <v>13.38825905305182</v>
       </c>
       <c r="D10">
-        <v>4.109793125864409</v>
+        <v>3.848041828199405</v>
       </c>
       <c r="E10">
-        <v>38.16138516236101</v>
+        <v>20.24904979014259</v>
       </c>
       <c r="F10">
-        <v>20.44542078417879</v>
+        <v>19.8875623629176</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.31427006950555</v>
+        <v>17.26342360399078</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.32603306422291</v>
+        <v>18.65257390207194</v>
       </c>
       <c r="C11">
-        <v>23.56688215889513</v>
+        <v>13.79405483640517</v>
       </c>
       <c r="D11">
-        <v>4.198057044315006</v>
+        <v>3.880098268908473</v>
       </c>
       <c r="E11">
-        <v>39.73728185718615</v>
+        <v>20.96075776667514</v>
       </c>
       <c r="F11">
-        <v>21.29484737048227</v>
+        <v>19.94057624441709</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.96079253444854</v>
+        <v>17.23807508470405</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.73816752579622</v>
+        <v>18.85608603829845</v>
       </c>
       <c r="C12">
-        <v>23.85142181689534</v>
+        <v>13.9444083126921</v>
       </c>
       <c r="D12">
-        <v>4.231151705066713</v>
+        <v>3.892169936680048</v>
       </c>
       <c r="E12">
-        <v>40.32797812293967</v>
+        <v>21.22422159318808</v>
       </c>
       <c r="F12">
-        <v>21.61600614998272</v>
+        <v>19.96221098400179</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.20565789917911</v>
+        <v>17.22976779147638</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.64975859882034</v>
+        <v>18.81244545916545</v>
       </c>
       <c r="C13">
-        <v>23.79037422394653</v>
+        <v>13.91217465645377</v>
       </c>
       <c r="D13">
-        <v>4.224038861108672</v>
+        <v>3.889573200256137</v>
       </c>
       <c r="E13">
-        <v>40.20101749717757</v>
+        <v>21.16774822534621</v>
       </c>
       <c r="F13">
-        <v>21.54685861497849</v>
+        <v>19.95748231843642</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.15291748331597</v>
+        <v>17.23149923406023</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.36009832691859</v>
+        <v>18.66940224276311</v>
       </c>
       <c r="C14">
-        <v>23.59039659178791</v>
+        <v>13.80649101585829</v>
       </c>
       <c r="D14">
-        <v>4.200786375122339</v>
+        <v>3.881092804767366</v>
       </c>
       <c r="E14">
-        <v>39.78599556063121</v>
+        <v>20.98255403741254</v>
       </c>
       <c r="F14">
-        <v>21.32127844886119</v>
+        <v>19.94232493546568</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.98093606777855</v>
+        <v>17.23736566723153</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.18164032250434</v>
+        <v>18.58123041413059</v>
       </c>
       <c r="C15">
-        <v>23.46722032222329</v>
+        <v>13.74132471131175</v>
       </c>
       <c r="D15">
-        <v>4.186500604036348</v>
+        <v>3.875889323592601</v>
       </c>
       <c r="E15">
-        <v>39.53101752026198</v>
+        <v>20.86833110078487</v>
       </c>
       <c r="F15">
-        <v>21.18304334203103</v>
+        <v>19.93324347833317</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.87560222826817</v>
+        <v>17.24112767902822</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.14300474444728</v>
+        <v>18.06750654776319</v>
       </c>
       <c r="C16">
-        <v>22.75079327340473</v>
+        <v>13.36127700406613</v>
       </c>
       <c r="D16">
-        <v>4.103979078266648</v>
+        <v>3.845937828067923</v>
       </c>
       <c r="E16">
-        <v>38.05750480030047</v>
+        <v>20.20169026644631</v>
       </c>
       <c r="F16">
-        <v>20.38983120958805</v>
+        <v>19.88431638632261</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.27201665916555</v>
+        <v>17.2652601142246</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.49144733876656</v>
+        <v>17.74486417280591</v>
       </c>
       <c r="C17">
-        <v>22.30180444326484</v>
+        <v>13.12225453602907</v>
       </c>
       <c r="D17">
-        <v>4.052774197851558</v>
+        <v>3.827451312355486</v>
       </c>
       <c r="E17">
-        <v>37.14191444472407</v>
+        <v>19.78192449817088</v>
       </c>
       <c r="F17">
-        <v>19.91176280583495</v>
+        <v>19.85708572443544</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.05212850216342</v>
+        <v>17.28234886940117</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.11134693216889</v>
+        <v>17.55655712956199</v>
       </c>
       <c r="C18">
-        <v>22.04004847037259</v>
+        <v>12.98262434868256</v>
       </c>
       <c r="D18">
-        <v>4.023111407783546</v>
+        <v>3.816779490824612</v>
       </c>
       <c r="E18">
-        <v>36.61077703905606</v>
+        <v>19.53650500541305</v>
       </c>
       <c r="F18">
-        <v>19.68744503489814</v>
+        <v>19.84244815258743</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.93110318446042</v>
+        <v>17.29301227593966</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.98172905575073</v>
+        <v>17.49233256013565</v>
       </c>
       <c r="C19">
-        <v>21.95081757306326</v>
+        <v>12.93497945426967</v>
       </c>
       <c r="D19">
-        <v>4.013032105900112</v>
+        <v>3.813159748368181</v>
       </c>
       <c r="E19">
-        <v>36.430146347254</v>
+        <v>19.45272532330779</v>
       </c>
       <c r="F19">
-        <v>19.6117782739293</v>
+        <v>19.83766822721991</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.89064877444195</v>
+        <v>17.29676553953992</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.56135840668503</v>
+        <v>17.77949321805978</v>
       </c>
       <c r="C20">
-        <v>22.34996278246545</v>
+        <v>13.14792168900441</v>
       </c>
       <c r="D20">
-        <v>4.058246952476308</v>
+        <v>3.829423310232393</v>
       </c>
       <c r="E20">
-        <v>37.23984263539567</v>
+        <v>19.8270210794926</v>
       </c>
       <c r="F20">
-        <v>19.95414440513955</v>
+        <v>19.85987843969546</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.07477657304353</v>
+        <v>17.28044326825091</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.44539345561694</v>
+        <v>18.71153299112191</v>
       </c>
       <c r="C21">
-        <v>23.64927728798787</v>
+        <v>13.8376229314562</v>
       </c>
       <c r="D21">
-        <v>4.207625149968111</v>
+        <v>3.883585589698038</v>
       </c>
       <c r="E21">
-        <v>39.90805550900862</v>
+        <v>21.03711383061446</v>
       </c>
       <c r="F21">
-        <v>21.38754917194913</v>
+        <v>19.94673476135729</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.03144886041109</v>
+        <v>17.23560738050466</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.63034798142272</v>
+        <v>19.29594365801019</v>
       </c>
       <c r="C22">
-        <v>24.467762828175</v>
+        <v>14.26906731943327</v>
       </c>
       <c r="D22">
-        <v>4.303335265980405</v>
+        <v>3.918587586866277</v>
       </c>
       <c r="E22">
-        <v>41.61698786295596</v>
+        <v>21.79276318518961</v>
       </c>
       <c r="F22">
-        <v>22.32154938187185</v>
+        <v>20.01258546668178</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.74439270330418</v>
+        <v>17.21383959900516</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.0020966618235</v>
+        <v>18.98631264627127</v>
       </c>
       <c r="C23">
-        <v>24.03369893303744</v>
+        <v>14.04057124366009</v>
       </c>
       <c r="D23">
-        <v>4.252429302636441</v>
+        <v>3.899944992668285</v>
       </c>
       <c r="E23">
-        <v>40.70781262930205</v>
+        <v>21.39266975740218</v>
       </c>
       <c r="F23">
-        <v>21.82325798658896</v>
+        <v>19.97661112012243</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.36379688885591</v>
+        <v>17.22476317425515</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.52976879234449</v>
+        <v>17.76384619196211</v>
       </c>
       <c r="C24">
-        <v>22.32820169814326</v>
+        <v>13.13632446018795</v>
       </c>
       <c r="D24">
-        <v>4.055773418604816</v>
+        <v>3.828531905456983</v>
       </c>
       <c r="E24">
-        <v>37.19558415843304</v>
+        <v>19.80664565929584</v>
       </c>
       <c r="F24">
-        <v>19.93457834027493</v>
+        <v>19.85861268274044</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.0645280278987</v>
+        <v>17.28130217875398</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.65818390843043</v>
+        <v>16.34116850601542</v>
       </c>
       <c r="C25">
-        <v>20.35422568467486</v>
+        <v>12.07888989524571</v>
       </c>
       <c r="D25">
-        <v>3.835641781478893</v>
+        <v>3.75004685495666</v>
       </c>
       <c r="E25">
-        <v>33.23225014274492</v>
+        <v>17.94350157946699</v>
       </c>
       <c r="F25">
-        <v>18.32857825606559</v>
+        <v>19.77049761042823</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.23635424948294</v>
+        <v>17.37411645601009</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_33/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.20717213437361</v>
+        <v>25.36187159538038</v>
       </c>
       <c r="C2">
-        <v>11.23098386416958</v>
+        <v>18.78316758016594</v>
       </c>
       <c r="D2">
-        <v>3.691276806880144</v>
+        <v>3.667102608023719</v>
       </c>
       <c r="E2">
-        <v>16.58230678704313</v>
+        <v>30.13972387202395</v>
       </c>
       <c r="F2">
-        <v>19.73925079067827</v>
+        <v>17.20286171920607</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.46919510004873</v>
+        <v>12.72255374862498</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.3869011330943</v>
+        <v>23.689620243938</v>
       </c>
       <c r="C3">
-        <v>10.61409342803636</v>
+        <v>17.64466769346558</v>
       </c>
       <c r="D3">
-        <v>3.65097749453512</v>
+        <v>3.549203684935295</v>
       </c>
       <c r="E3">
-        <v>15.63480355221651</v>
+        <v>27.92499286604799</v>
       </c>
       <c r="F3">
-        <v>19.73891381041926</v>
+        <v>16.47776860560776</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.54996281088463</v>
+        <v>12.43142879086597</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.85872582943154</v>
+        <v>22.60492527918626</v>
       </c>
       <c r="C4">
-        <v>10.21494742836907</v>
+        <v>16.90933012325683</v>
       </c>
       <c r="D4">
-        <v>3.626050790119419</v>
+        <v>3.47515541217814</v>
       </c>
       <c r="E4">
-        <v>15.02787072369468</v>
+        <v>26.50354375359373</v>
       </c>
       <c r="F4">
-        <v>19.74890707209335</v>
+        <v>16.05223206857244</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.6074872766523</v>
+        <v>12.27959786169233</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.63750985203694</v>
+        <v>22.14825074560924</v>
       </c>
       <c r="C5">
-        <v>10.04725985989433</v>
+        <v>16.60059396399711</v>
       </c>
       <c r="D5">
-        <v>3.615854635603046</v>
+        <v>3.444591253825666</v>
       </c>
       <c r="E5">
-        <v>14.77448087684881</v>
+        <v>25.90840315500346</v>
       </c>
       <c r="F5">
-        <v>19.75552969658342</v>
+        <v>15.88393292375913</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.63290483321494</v>
+        <v>12.22427252772091</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.60042211023479</v>
+        <v>22.07153306559324</v>
       </c>
       <c r="C6">
-        <v>10.01911457157782</v>
+        <v>16.54878209790377</v>
       </c>
       <c r="D6">
-        <v>3.61415948184738</v>
+        <v>3.439493503015306</v>
       </c>
       <c r="E6">
-        <v>14.73204855493091</v>
+        <v>25.80860973672094</v>
       </c>
       <c r="F6">
-        <v>19.75678291737364</v>
+        <v>15.85630028810577</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.63724417227236</v>
+        <v>12.21547393113612</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.8557663731598</v>
+        <v>22.59882583850941</v>
       </c>
       <c r="C7">
-        <v>10.21270617651269</v>
+        <v>16.90520308125536</v>
       </c>
       <c r="D7">
-        <v>3.625913426264311</v>
+        <v>3.474744748061082</v>
       </c>
       <c r="E7">
-        <v>15.02447756294644</v>
+        <v>26.49558231965702</v>
       </c>
       <c r="F7">
-        <v>19.7489860829959</v>
+        <v>16.04994142332276</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.60782209203203</v>
+        <v>12.27882553987289</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.92953414443551</v>
+        <v>24.79724513238607</v>
       </c>
       <c r="C8">
-        <v>11.02255680238469</v>
+        <v>18.39816421105844</v>
       </c>
       <c r="D8">
-        <v>3.677424094981955</v>
+        <v>3.626810743639947</v>
       </c>
       <c r="E8">
-        <v>16.26097475304845</v>
+        <v>29.38861838723016</v>
       </c>
       <c r="F8">
-        <v>19.73700978143365</v>
+        <v>16.94886448994896</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.49538620089033</v>
+        <v>12.6164650506827</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.83407210579252</v>
+        <v>28.6533867078174</v>
       </c>
       <c r="C9">
-        <v>12.44595959867729</v>
+        <v>21.03733218039096</v>
       </c>
       <c r="D9">
-        <v>3.776655678919636</v>
+        <v>3.910833501597913</v>
       </c>
       <c r="E9">
-        <v>18.59159515867276</v>
+        <v>34.59291799026477</v>
       </c>
       <c r="F9">
-        <v>19.7949446420826</v>
+        <v>18.86098593319473</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.33865376030681</v>
+        <v>13.50010542385733</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.1039505849988</v>
+        <v>31.21663200655026</v>
       </c>
       <c r="C10">
-        <v>13.38825905305182</v>
+        <v>22.80155215208468</v>
       </c>
       <c r="D10">
-        <v>3.848041828199405</v>
+        <v>4.109793125864451</v>
       </c>
       <c r="E10">
-        <v>20.24904979014259</v>
+        <v>38.16138516236104</v>
       </c>
       <c r="F10">
-        <v>19.8875623629176</v>
+        <v>20.44542078417891</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.26342360399078</v>
+        <v>14.31427006950566</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.65257390207194</v>
+        <v>32.32603306422287</v>
       </c>
       <c r="C11">
-        <v>13.79405483640517</v>
+        <v>23.56688215889526</v>
       </c>
       <c r="D11">
-        <v>3.880098268908473</v>
+        <v>4.198057044315045</v>
       </c>
       <c r="E11">
-        <v>20.96075776667514</v>
+        <v>39.73728185718598</v>
       </c>
       <c r="F11">
-        <v>19.94057624441709</v>
+        <v>21.29484737048217</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.23807508470405</v>
+        <v>14.96079253444845</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.85608603829845</v>
+        <v>32.73816752579625</v>
       </c>
       <c r="C12">
-        <v>13.9444083126921</v>
+        <v>23.85142181689536</v>
       </c>
       <c r="D12">
-        <v>3.892169936680048</v>
+        <v>4.231151705066806</v>
       </c>
       <c r="E12">
-        <v>21.22422159318808</v>
+        <v>40.32797812293973</v>
       </c>
       <c r="F12">
-        <v>19.96221098400179</v>
+        <v>21.6160061499828</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.22976779147638</v>
+        <v>15.20565789917917</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.81244545916545</v>
+        <v>32.64975859882043</v>
       </c>
       <c r="C13">
-        <v>13.91217465645377</v>
+        <v>23.79037422394658</v>
       </c>
       <c r="D13">
-        <v>3.889573200256137</v>
+        <v>4.224038861108671</v>
       </c>
       <c r="E13">
-        <v>21.16774822534621</v>
+        <v>40.2010174971775</v>
       </c>
       <c r="F13">
-        <v>19.95748231843642</v>
+        <v>21.54685861497861</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.23149923406023</v>
+        <v>15.15291748331609</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.66940224276311</v>
+        <v>32.36009832691864</v>
       </c>
       <c r="C14">
-        <v>13.80649101585829</v>
+        <v>23.59039659178793</v>
       </c>
       <c r="D14">
-        <v>3.881092804767366</v>
+        <v>4.200786375122458</v>
       </c>
       <c r="E14">
-        <v>20.98255403741254</v>
+        <v>39.78599556063128</v>
       </c>
       <c r="F14">
-        <v>19.94232493546568</v>
+        <v>21.32127844886122</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.23736566723153</v>
+        <v>14.98093606777856</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.58123041413059</v>
+        <v>32.18164032250442</v>
       </c>
       <c r="C15">
-        <v>13.74132471131175</v>
+        <v>23.46722032222328</v>
       </c>
       <c r="D15">
-        <v>3.875889323592601</v>
+        <v>4.186500604036341</v>
       </c>
       <c r="E15">
-        <v>20.86833110078487</v>
+        <v>39.53101752026208</v>
       </c>
       <c r="F15">
-        <v>19.93324347833317</v>
+        <v>21.18304334203111</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.24112767902822</v>
+        <v>14.87560222826824</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.06750654776319</v>
+        <v>31.14300474444719</v>
       </c>
       <c r="C16">
-        <v>13.36127700406613</v>
+        <v>22.75079327340479</v>
       </c>
       <c r="D16">
-        <v>3.845937828067923</v>
+        <v>4.103979078266737</v>
       </c>
       <c r="E16">
-        <v>20.20169026644631</v>
+        <v>38.05750480030031</v>
       </c>
       <c r="F16">
-        <v>19.88431638632261</v>
+        <v>20.38983120958807</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.2652601142246</v>
+        <v>14.27201665916554</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.74486417280591</v>
+        <v>30.49144733876658</v>
       </c>
       <c r="C17">
-        <v>13.12225453602907</v>
+        <v>22.30180444326482</v>
       </c>
       <c r="D17">
-        <v>3.827451312355486</v>
+        <v>4.052774197851628</v>
       </c>
       <c r="E17">
-        <v>19.78192449817088</v>
+        <v>37.14191444472398</v>
       </c>
       <c r="F17">
-        <v>19.85708572443544</v>
+        <v>19.91176280583492</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.28234886940117</v>
+        <v>14.05212850216342</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.55655712956199</v>
+        <v>30.11134693216894</v>
       </c>
       <c r="C18">
-        <v>12.98262434868256</v>
+        <v>22.04004847037247</v>
       </c>
       <c r="D18">
-        <v>3.816779490824612</v>
+        <v>4.023111407783667</v>
       </c>
       <c r="E18">
-        <v>19.53650500541305</v>
+        <v>36.61077703905608</v>
       </c>
       <c r="F18">
-        <v>19.84244815258743</v>
+        <v>19.68744503489815</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.29301227593966</v>
+        <v>13.93110318446045</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.49233256013565</v>
+        <v>29.98172905575069</v>
       </c>
       <c r="C19">
-        <v>12.93497945426967</v>
+        <v>21.95081757306328</v>
       </c>
       <c r="D19">
-        <v>3.813159748368181</v>
+        <v>4.01303210590007</v>
       </c>
       <c r="E19">
-        <v>19.45272532330779</v>
+        <v>36.43014634725398</v>
       </c>
       <c r="F19">
-        <v>19.83766822721991</v>
+        <v>19.6117782739293</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.29676553953992</v>
+        <v>13.89064877444195</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.77949321805978</v>
+        <v>30.56135840668509</v>
       </c>
       <c r="C20">
-        <v>13.14792168900441</v>
+        <v>22.34996278246549</v>
       </c>
       <c r="D20">
-        <v>3.829423310232393</v>
+        <v>4.058246952476309</v>
       </c>
       <c r="E20">
-        <v>19.8270210794926</v>
+        <v>37.23984263539565</v>
       </c>
       <c r="F20">
-        <v>19.85987843969546</v>
+        <v>19.95414440513955</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.28044326825091</v>
+        <v>14.07477657304352</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.71153299112191</v>
+        <v>32.44539345561697</v>
       </c>
       <c r="C21">
-        <v>13.8376229314562</v>
+        <v>23.64927728798796</v>
       </c>
       <c r="D21">
-        <v>3.883585589698038</v>
+        <v>4.207625149968112</v>
       </c>
       <c r="E21">
-        <v>21.03711383061446</v>
+        <v>39.90805550900857</v>
       </c>
       <c r="F21">
-        <v>19.94673476135729</v>
+        <v>21.38754917194911</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.23560738050466</v>
+        <v>15.03144886041105</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.29594365801019</v>
+        <v>33.63034798142267</v>
       </c>
       <c r="C22">
-        <v>14.26906731943327</v>
+        <v>24.46776282817499</v>
       </c>
       <c r="D22">
-        <v>3.918587586866277</v>
+        <v>4.303335265980414</v>
       </c>
       <c r="E22">
-        <v>21.79276318518961</v>
+        <v>41.6169878629559</v>
       </c>
       <c r="F22">
-        <v>20.01258546668178</v>
+        <v>22.32154938187173</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.21383959900516</v>
+        <v>15.74439270330405</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.98631264627127</v>
+        <v>33.00209666182349</v>
       </c>
       <c r="C23">
-        <v>14.04057124366009</v>
+        <v>24.03369893303752</v>
       </c>
       <c r="D23">
-        <v>3.899944992668285</v>
+        <v>4.252429302636425</v>
       </c>
       <c r="E23">
-        <v>21.39266975740218</v>
+        <v>40.70781262930217</v>
       </c>
       <c r="F23">
-        <v>19.97661112012243</v>
+        <v>21.82325798658903</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.22476317425515</v>
+        <v>15.36379688885599</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.76384619196211</v>
+        <v>30.52976879234458</v>
       </c>
       <c r="C24">
-        <v>13.13632446018795</v>
+        <v>22.32820169814319</v>
       </c>
       <c r="D24">
-        <v>3.828531905456983</v>
+        <v>4.055773418604783</v>
       </c>
       <c r="E24">
-        <v>19.80664565929584</v>
+        <v>37.19558415843314</v>
       </c>
       <c r="F24">
-        <v>19.85861268274044</v>
+        <v>19.93457834027497</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.28130217875398</v>
+        <v>14.0645280278987</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.34116850601542</v>
+        <v>27.65818390843033</v>
       </c>
       <c r="C25">
-        <v>12.07888989524571</v>
+        <v>20.35422568467478</v>
       </c>
       <c r="D25">
-        <v>3.75004685495666</v>
+        <v>3.835641781478925</v>
       </c>
       <c r="E25">
-        <v>17.94350157946699</v>
+        <v>33.23225014274483</v>
       </c>
       <c r="F25">
-        <v>19.77049761042823</v>
+        <v>18.32857825606563</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.37411645601009</v>
+        <v>13.23635424948305</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.36187159538038</v>
+        <v>12.63867475190851</v>
       </c>
       <c r="C2">
-        <v>18.78316758016594</v>
+        <v>11.55439753043808</v>
       </c>
       <c r="D2">
-        <v>3.667102608023719</v>
+        <v>6.074307954739028</v>
       </c>
       <c r="E2">
-        <v>30.13972387202395</v>
+        <v>27.79442915891477</v>
       </c>
       <c r="F2">
-        <v>17.20286171920607</v>
+        <v>40.50897140313668</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>2.103152211169515</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.265313375061445</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>28.63883985491854</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.69438568771869</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.72255374862498</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.689620243938</v>
+        <v>11.80413073367883</v>
       </c>
       <c r="C3">
-        <v>17.64466769346558</v>
+        <v>10.74185145185602</v>
       </c>
       <c r="D3">
-        <v>3.549203684935295</v>
+        <v>5.980453652267896</v>
       </c>
       <c r="E3">
-        <v>27.92499286604799</v>
+        <v>25.87054394360624</v>
       </c>
       <c r="F3">
-        <v>16.47776860560776</v>
+        <v>38.63804604742933</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>1.812852618528046</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.518333036887136</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>27.5828791517131</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.87571809702775</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.43142879086597</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.60492527918626</v>
+        <v>11.26145199348827</v>
       </c>
       <c r="C4">
-        <v>16.90933012325683</v>
+        <v>10.2197422008393</v>
       </c>
       <c r="D4">
-        <v>3.47515541217814</v>
+        <v>5.918789054604241</v>
       </c>
       <c r="E4">
-        <v>26.50354375359373</v>
+        <v>24.62302630449122</v>
       </c>
       <c r="F4">
-        <v>16.05223206857244</v>
+        <v>37.44139034257118</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>1.629017149551602</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.678819312828179</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>26.90869072217377</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.34602974742946</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.27959786169233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.14825074560924</v>
+        <v>11.03082132928637</v>
       </c>
       <c r="C5">
-        <v>16.60059396399711</v>
+        <v>10.00871865271844</v>
       </c>
       <c r="D5">
-        <v>3.444591253825666</v>
+        <v>5.888092227066094</v>
       </c>
       <c r="E5">
-        <v>25.90840315500346</v>
+        <v>24.09751343178873</v>
       </c>
       <c r="F5">
-        <v>15.88393292375913</v>
+        <v>36.90616383427381</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>1.569011316943511</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.748471169612278</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>26.59923124613257</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.12446031362889</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.22427252772091</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.07153306559324</v>
+        <v>10.98982163180946</v>
       </c>
       <c r="C6">
-        <v>16.54878209790377</v>
+        <v>9.982650241793547</v>
       </c>
       <c r="D6">
-        <v>3.439493503015306</v>
+        <v>5.877380644170326</v>
       </c>
       <c r="E6">
-        <v>25.80860973672094</v>
+        <v>24.00881374637124</v>
       </c>
       <c r="F6">
-        <v>15.85630028810577</v>
+        <v>36.77260725421137</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>1.58257649226278</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.76385337915917</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>26.51265826901221</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.08860190824957</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.21547393113612</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.59882583850941</v>
+        <v>11.25238596408573</v>
       </c>
       <c r="C7">
-        <v>16.90520308125536</v>
+        <v>10.24172078298778</v>
       </c>
       <c r="D7">
-        <v>3.474744748061082</v>
+        <v>5.903279361670453</v>
       </c>
       <c r="E7">
-        <v>26.49558231965702</v>
+        <v>24.61485153704532</v>
       </c>
       <c r="F7">
-        <v>16.04994142332276</v>
+        <v>37.31595899913618</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>1.626866189320058</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.689719592658215</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>26.81058667421042</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.34664750214049</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.27882553987289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.79724513238607</v>
+        <v>12.34980548941563</v>
       </c>
       <c r="C8">
-        <v>18.39816421105844</v>
+        <v>11.30902383811082</v>
       </c>
       <c r="D8">
-        <v>3.626810743639947</v>
+        <v>6.023203592256716</v>
       </c>
       <c r="E8">
-        <v>29.38861838723016</v>
+        <v>27.14317486841183</v>
       </c>
       <c r="F8">
-        <v>16.94886448994896</v>
+        <v>39.72605045985213</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>2.002745458290876</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.36448214196577</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>28.16118741311874</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.42203329026165</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.6164650506827</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.6533867078174</v>
+        <v>14.27340876335511</v>
       </c>
       <c r="C9">
-        <v>21.03733218039096</v>
+        <v>13.18174336443375</v>
       </c>
       <c r="D9">
-        <v>3.910833501597913</v>
+        <v>6.252471553653201</v>
       </c>
       <c r="E9">
-        <v>34.59291799026477</v>
+        <v>31.58409518326026</v>
       </c>
       <c r="F9">
-        <v>18.86098593319473</v>
+        <v>44.25248118215387</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>2.699210923742641</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.749418886271273</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>30.75396153841023</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.31224300418283</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.50010542385733</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.21663200655026</v>
+        <v>15.55030058159917</v>
       </c>
       <c r="C10">
-        <v>22.80155215208468</v>
+        <v>14.37697301402806</v>
       </c>
       <c r="D10">
-        <v>4.109793125864451</v>
+        <v>6.325716772302452</v>
       </c>
       <c r="E10">
-        <v>38.16138516236104</v>
+        <v>33.65455565691219</v>
       </c>
       <c r="F10">
-        <v>20.44542078417891</v>
+        <v>46.76975246824205</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>3.148207439761588</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.623414255563924</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>32.111671297116</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.55169570535718</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.31427006950566</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.32603306422287</v>
+        <v>16.16684666154613</v>
       </c>
       <c r="C11">
-        <v>23.56688215889526</v>
+        <v>14.2172463198372</v>
       </c>
       <c r="D11">
-        <v>4.198057044315045</v>
+        <v>5.831387519991686</v>
       </c>
       <c r="E11">
-        <v>39.73728185718598</v>
+        <v>27.00379262585229</v>
       </c>
       <c r="F11">
-        <v>21.29484737048217</v>
+        <v>43.41495948647277</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>3.65040351316487</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.68654796351794</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>29.45485864799363</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.89826025374087</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.96079253444845</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.73816752579625</v>
+        <v>16.44203250097154</v>
       </c>
       <c r="C12">
-        <v>23.85142181689536</v>
+        <v>13.814679356285</v>
       </c>
       <c r="D12">
-        <v>4.231151705066806</v>
+        <v>5.547679395819364</v>
       </c>
       <c r="E12">
-        <v>40.32797812293973</v>
+        <v>20.94120543729791</v>
       </c>
       <c r="F12">
-        <v>21.6160061499828</v>
+        <v>40.20097138602171</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.633933421096791</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.664846336138917</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>27.07299265756794</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.94082106382072</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.20565789917917</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.64975859882043</v>
+        <v>16.4737636990821</v>
       </c>
       <c r="C13">
-        <v>23.79037422394658</v>
+        <v>13.2167728768017</v>
       </c>
       <c r="D13">
-        <v>4.224038861108671</v>
+        <v>5.400649159382895</v>
       </c>
       <c r="E13">
-        <v>40.2010174971775</v>
+        <v>14.77599838110843</v>
       </c>
       <c r="F13">
-        <v>21.54685861497861</v>
+        <v>36.67350073334945</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.793048324084263</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.580991110441036</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>24.60022072954739</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.75872790104264</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.15291748331609</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.36009832691864</v>
+        <v>16.38627502838807</v>
       </c>
       <c r="C14">
-        <v>23.59039659178793</v>
+        <v>12.70879009746815</v>
       </c>
       <c r="D14">
-        <v>4.200786375122458</v>
+        <v>5.38171185375438</v>
       </c>
       <c r="E14">
-        <v>39.78599556063128</v>
+        <v>10.35392438627005</v>
       </c>
       <c r="F14">
-        <v>21.32127844886122</v>
+        <v>34.00443910108818</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.667087669702008</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.506049660475569</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>22.80579664141188</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.52970534576474</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.98093606777856</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.18164032250442</v>
+        <v>16.3100680150715</v>
       </c>
       <c r="C15">
-        <v>23.46722032222328</v>
+        <v>12.54724649518593</v>
       </c>
       <c r="D15">
-        <v>4.186500604036341</v>
+        <v>5.38813321800506</v>
       </c>
       <c r="E15">
-        <v>39.53101752026208</v>
+        <v>9.241720986407008</v>
       </c>
       <c r="F15">
-        <v>21.18304334203111</v>
+        <v>33.24456586802549</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>6.866741531615945</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.547593647990197</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>22.31758003719007</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>15.4253149878024</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.87560222826824</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.14300474444719</v>
+        <v>15.78673099502018</v>
       </c>
       <c r="C16">
-        <v>22.75079327340479</v>
+        <v>12.14053081465141</v>
       </c>
       <c r="D16">
-        <v>4.103979078266737</v>
+        <v>5.378440614954593</v>
       </c>
       <c r="E16">
-        <v>38.05750480030031</v>
+        <v>9.079160932062411</v>
       </c>
       <c r="F16">
-        <v>20.38983120958807</v>
+        <v>32.63735498664742</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.583579092965197</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.706436600509684</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>22.10304052723739</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.94699343659474</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.27201665916554</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.49144733876658</v>
+        <v>15.42345507218718</v>
       </c>
       <c r="C17">
-        <v>22.30180444326482</v>
+        <v>12.10779697206466</v>
       </c>
       <c r="D17">
-        <v>4.052774197851628</v>
+        <v>5.366439475010667</v>
       </c>
       <c r="E17">
-        <v>37.14191444472398</v>
+        <v>11.43507041173353</v>
       </c>
       <c r="F17">
-        <v>19.91176280583492</v>
+        <v>33.63381391406445</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>5.847317317985508</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.783707556774123</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>22.90077463667032</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.6989608298644</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.05212850216342</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.11134693216894</v>
+        <v>15.17047865963188</v>
       </c>
       <c r="C18">
-        <v>22.04004847037247</v>
+        <v>12.38802786194273</v>
       </c>
       <c r="D18">
-        <v>4.023111407783667</v>
+        <v>5.429724106092906</v>
       </c>
       <c r="E18">
-        <v>36.61077703905608</v>
+        <v>16.3100679131347</v>
       </c>
       <c r="F18">
-        <v>19.68744503489815</v>
+        <v>36.22543715116839</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>4.696603673844981</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.781216098615036</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>24.76289420991282</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.62846816956714</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.93110318446045</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.98172905575069</v>
+        <v>15.02476405992159</v>
       </c>
       <c r="C19">
-        <v>21.95081757306328</v>
+        <v>12.93772504034069</v>
       </c>
       <c r="D19">
-        <v>4.01303210590007</v>
+        <v>5.651143813007641</v>
       </c>
       <c r="E19">
-        <v>36.43014634725398</v>
+        <v>22.7901922597117</v>
       </c>
       <c r="F19">
-        <v>19.6117782739293</v>
+        <v>39.72173248376951</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.515050201794375</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.726484127246534</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>27.23955451807518</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.71861465873956</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.89064877444195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.56135840668509</v>
+        <v>15.21011673515861</v>
       </c>
       <c r="C20">
-        <v>22.34996278246549</v>
+        <v>14.12346384093347</v>
       </c>
       <c r="D20">
-        <v>4.058246952476309</v>
+        <v>6.261860590957038</v>
       </c>
       <c r="E20">
-        <v>37.23984263539565</v>
+        <v>33.07863150900344</v>
       </c>
       <c r="F20">
-        <v>19.95414440513955</v>
+        <v>45.79655004592475</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>3.025751247671251</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.527436435302321</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>31.49593693064532</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.24181700818304</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.07477657304352</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.44539345561697</v>
+        <v>16.13715443259187</v>
       </c>
       <c r="C21">
-        <v>23.64927728798796</v>
+        <v>15.12278495676674</v>
       </c>
       <c r="D21">
-        <v>4.207625149968112</v>
+        <v>6.427160043697021</v>
       </c>
       <c r="E21">
-        <v>39.90805550900857</v>
+        <v>35.95284666687187</v>
       </c>
       <c r="F21">
-        <v>21.38754917194911</v>
+        <v>48.505969375822</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>3.425704606728593</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.853401558686244</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>33.12411877322283</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>16.18736438571143</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.03144886041105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.63034798142267</v>
+        <v>16.7281867698712</v>
       </c>
       <c r="C22">
-        <v>24.46776282817499</v>
+        <v>15.69331256000672</v>
       </c>
       <c r="D22">
-        <v>4.303335265980414</v>
+        <v>6.514643292650579</v>
       </c>
       <c r="E22">
-        <v>41.6169878629559</v>
+        <v>37.32203964985184</v>
       </c>
       <c r="F22">
-        <v>22.32154938187173</v>
+        <v>50.08519326723145</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>3.664556857777014</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.054753582399174</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>34.07013539909812</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.76821217182591</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.74439270330405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.00209666182349</v>
+        <v>16.42034289956254</v>
       </c>
       <c r="C23">
-        <v>24.03369893303752</v>
+        <v>15.37007000067413</v>
       </c>
       <c r="D23">
-        <v>4.252429302636425</v>
+        <v>6.484475235181978</v>
       </c>
       <c r="E23">
-        <v>40.70781262930217</v>
+        <v>36.59760468709075</v>
       </c>
       <c r="F23">
-        <v>21.82325798658903</v>
+        <v>49.35602460046152</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>3.538587324195474</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.944394962299177</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>33.65869313027822</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.45734958964991</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.36379688885599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.52976879234458</v>
+        <v>15.19655044022888</v>
       </c>
       <c r="C24">
-        <v>22.32820169814319</v>
+        <v>14.14060405299749</v>
       </c>
       <c r="D24">
-        <v>4.055773418604783</v>
+        <v>6.338023306933378</v>
       </c>
       <c r="E24">
-        <v>37.19558415843314</v>
+        <v>33.74516139857272</v>
       </c>
       <c r="F24">
-        <v>19.93457834027497</v>
+        <v>46.33114846060684</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>3.052960223989245</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.52742428690686</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>31.90753024772744</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.2398098488641</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.0645280278987</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.65818390843033</v>
+        <v>13.76899209929627</v>
       </c>
       <c r="C25">
-        <v>20.35422568467478</v>
+        <v>12.73067108450562</v>
       </c>
       <c r="D25">
-        <v>3.835641781478925</v>
+        <v>6.168002804548233</v>
       </c>
       <c r="E25">
-        <v>33.23225014274483</v>
+        <v>30.4351650040127</v>
       </c>
       <c r="F25">
-        <v>18.32857825606563</v>
+        <v>42.88476681585414</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>2.51317034261376</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.93107170453156</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>29.92359860299463</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.8287067967163</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.23635424948305</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.63867475190851</v>
+        <v>12.50376692261744</v>
       </c>
       <c r="C2">
-        <v>11.55439753043808</v>
+        <v>12.7615596788847</v>
       </c>
       <c r="D2">
-        <v>6.074307954739028</v>
+        <v>5.258917632365852</v>
       </c>
       <c r="E2">
-        <v>27.79442915891477</v>
+        <v>27.87519823255591</v>
       </c>
       <c r="F2">
-        <v>40.50897140313668</v>
+        <v>34.04703341258268</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.103152211169515</v>
+        <v>2.175826752582397</v>
       </c>
       <c r="I2">
-        <v>3.265313375061445</v>
+        <v>3.071173279033383</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>28.63883985491854</v>
+        <v>23.31383150912015</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>18.68828261839052</v>
       </c>
       <c r="M2">
-        <v>12.69438568771869</v>
+        <v>16.08253370954096</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.97188333708925</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.80413073367883</v>
+        <v>11.71232117679139</v>
       </c>
       <c r="C3">
-        <v>10.74185145185602</v>
+        <v>11.83595829464947</v>
       </c>
       <c r="D3">
-        <v>5.980453652267896</v>
+        <v>5.233567918796709</v>
       </c>
       <c r="E3">
-        <v>25.87054394360624</v>
+        <v>25.96475005973868</v>
       </c>
       <c r="F3">
-        <v>38.63804604742933</v>
+        <v>32.80548210624843</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.812852618528046</v>
+        <v>1.900195531268102</v>
       </c>
       <c r="I3">
-        <v>3.518333036887136</v>
+        <v>3.287948082081744</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>27.5828791517131</v>
+        <v>22.78610207086387</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>18.45570112263819</v>
       </c>
       <c r="M3">
-        <v>11.87571809702775</v>
+        <v>15.51778009485598</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.14126544520132</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.26145199348827</v>
+        <v>11.19781921936636</v>
       </c>
       <c r="C4">
-        <v>10.2197422008393</v>
+        <v>11.2397872017465</v>
       </c>
       <c r="D4">
-        <v>5.918789054604241</v>
+        <v>5.215486289364035</v>
       </c>
       <c r="E4">
-        <v>24.62302630449122</v>
+        <v>24.72499823173795</v>
       </c>
       <c r="F4">
-        <v>37.44139034257118</v>
+        <v>32.01547385911434</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.629017149551602</v>
+        <v>1.725460769597797</v>
       </c>
       <c r="I4">
-        <v>3.678819312828179</v>
+        <v>3.42595105375129</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>26.90869072217377</v>
+        <v>22.44944466017901</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>18.29896788199351</v>
       </c>
       <c r="M4">
-        <v>11.34602974742946</v>
+        <v>15.1748197861132</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.60346710481775</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.03082132928637</v>
+        <v>10.97943738253897</v>
       </c>
       <c r="C5">
-        <v>10.00871865271844</v>
+        <v>10.9961695631129</v>
       </c>
       <c r="D5">
-        <v>5.888092227066094</v>
+        <v>5.205525494700249</v>
       </c>
       <c r="E5">
-        <v>24.09751343178873</v>
+        <v>24.20258519500166</v>
       </c>
       <c r="F5">
-        <v>36.90616383427381</v>
+        <v>31.65849381708938</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.569011316943511</v>
+        <v>1.652560546795867</v>
       </c>
       <c r="I5">
-        <v>3.748471169612278</v>
+        <v>3.486743416023442</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>26.59923124613257</v>
+        <v>22.28778729005649</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>18.21443922224915</v>
       </c>
       <c r="M5">
-        <v>11.12446031362889</v>
+        <v>15.02119790193334</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.37821729334588</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.98982163180946</v>
+        <v>10.94087420955153</v>
       </c>
       <c r="C6">
-        <v>9.982650241793547</v>
+        <v>10.96308693412414</v>
       </c>
       <c r="D6">
-        <v>5.877380644170326</v>
+        <v>5.201457336578629</v>
       </c>
       <c r="E6">
-        <v>24.00881374637124</v>
+        <v>24.11444717423877</v>
       </c>
       <c r="F6">
-        <v>36.77260725421137</v>
+        <v>31.56416582511923</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.58257649226278</v>
+        <v>1.640027375087173</v>
       </c>
       <c r="I6">
-        <v>3.76385337915917</v>
+        <v>3.50114712794693</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>26.51265826901221</v>
+        <v>22.2346528267571</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>18.17926953059438</v>
       </c>
       <c r="M6">
-        <v>11.08860190824957</v>
+        <v>14.9772043936358</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.34149635251452</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.25238596408573</v>
+        <v>11.18991991490136</v>
       </c>
       <c r="C7">
-        <v>10.24172078298778</v>
+        <v>11.25725866525125</v>
       </c>
       <c r="D7">
-        <v>5.903279361670453</v>
+        <v>5.208984318834029</v>
       </c>
       <c r="E7">
-        <v>24.61485153704532</v>
+        <v>24.71702094842609</v>
       </c>
       <c r="F7">
-        <v>37.31595899913618</v>
+        <v>31.91745079758372</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.626866189320058</v>
+        <v>1.723560640298041</v>
       </c>
       <c r="I7">
-        <v>3.689719592658215</v>
+        <v>3.438024919693535</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>26.81058667421042</v>
+        <v>22.37674784524987</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>18.24180262096629</v>
       </c>
       <c r="M7">
-        <v>11.34664750214049</v>
+        <v>15.12200179646322</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.60339993530441</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.34980548941563</v>
+        <v>12.23067700741243</v>
       </c>
       <c r="C8">
-        <v>11.30902383811082</v>
+        <v>12.47324689894879</v>
       </c>
       <c r="D8">
-        <v>6.023203592256716</v>
+        <v>5.242842831776684</v>
       </c>
       <c r="E8">
-        <v>27.14317486841183</v>
+        <v>27.22893622834427</v>
       </c>
       <c r="F8">
-        <v>39.72605045985213</v>
+        <v>33.50778283785125</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.002745458290876</v>
+        <v>2.080736216424436</v>
       </c>
       <c r="I8">
-        <v>3.36448214196577</v>
+        <v>3.159546462982211</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>28.16118741311874</v>
+        <v>23.04473562794561</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>18.54141250060295</v>
       </c>
       <c r="M8">
-        <v>12.42203329026165</v>
+        <v>15.82067743122622</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.69483274503065</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.27340876335511</v>
+        <v>14.05395355527589</v>
       </c>
       <c r="C9">
-        <v>13.18174336443375</v>
+        <v>14.60681097757069</v>
       </c>
       <c r="D9">
-        <v>6.252471553653201</v>
+        <v>5.299544019567256</v>
       </c>
       <c r="E9">
-        <v>31.58409518326026</v>
+        <v>31.63281264236767</v>
       </c>
       <c r="F9">
-        <v>44.25248118215387</v>
+        <v>36.55234331804555</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.699210923742641</v>
+        <v>2.740638548963283</v>
       </c>
       <c r="I9">
-        <v>2.749418886271273</v>
+        <v>2.632728980101222</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>30.75396153841023</v>
+        <v>24.37158166599867</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>19.11142390429013</v>
       </c>
       <c r="M9">
-        <v>14.31224300418283</v>
+        <v>17.29590759826531</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.61070225373195</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.55030058159917</v>
+        <v>15.26940791637969</v>
       </c>
       <c r="C10">
-        <v>14.37697301402806</v>
+        <v>15.94657199688856</v>
       </c>
       <c r="D10">
-        <v>6.325716772302452</v>
+        <v>5.3075111927245</v>
       </c>
       <c r="E10">
-        <v>33.65455565691219</v>
+        <v>33.67439715674425</v>
       </c>
       <c r="F10">
-        <v>46.76975246824205</v>
+        <v>38.22340537017253</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.148207439761588</v>
+        <v>3.164389572092552</v>
       </c>
       <c r="I10">
-        <v>2.623414255563924</v>
+        <v>2.687096145172379</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>32.111671297116</v>
+        <v>24.99757234410706</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>19.25487509063119</v>
       </c>
       <c r="M10">
-        <v>15.55169570535718</v>
+        <v>18.15263698043729</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.86112844220428</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.16684666154613</v>
+        <v>15.908519832677</v>
       </c>
       <c r="C11">
-        <v>14.2172463198372</v>
+        <v>15.65003495728446</v>
       </c>
       <c r="D11">
-        <v>5.831387519991686</v>
+        <v>5.224324774568959</v>
       </c>
       <c r="E11">
-        <v>27.00379262585229</v>
+        <v>27.02647259527517</v>
       </c>
       <c r="F11">
-        <v>43.41495948647277</v>
+        <v>35.60463440634966</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.65040351316487</v>
+        <v>3.665446417919439</v>
       </c>
       <c r="I11">
-        <v>2.68654796351794</v>
+        <v>2.753195219212945</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>29.45485864799363</v>
+        <v>23.02485852320854</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>17.65919206149828</v>
       </c>
       <c r="M11">
-        <v>15.89826025374087</v>
+        <v>16.79689492762992</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>16.18688741302051</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.44203250097154</v>
+        <v>16.21330342626249</v>
       </c>
       <c r="C12">
-        <v>13.814679356285</v>
+        <v>15.1054509587629</v>
       </c>
       <c r="D12">
-        <v>5.547679395819364</v>
+        <v>5.263802780792889</v>
       </c>
       <c r="E12">
-        <v>20.94120543729791</v>
+        <v>20.9717264035931</v>
       </c>
       <c r="F12">
-        <v>40.20097138602171</v>
+        <v>33.15285125380119</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.633933421096791</v>
+        <v>4.648536104771896</v>
       </c>
       <c r="I12">
-        <v>2.664846336138917</v>
+        <v>2.740899009501216</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>27.07299265756794</v>
+        <v>21.34539604398152</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>16.39017157107982</v>
       </c>
       <c r="M12">
-        <v>15.94082106382072</v>
+        <v>15.54381770263633</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>16.20897007326654</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.4737636990821</v>
+        <v>16.28340869102399</v>
       </c>
       <c r="C13">
-        <v>13.2167728768017</v>
+        <v>14.34290937683449</v>
       </c>
       <c r="D13">
-        <v>5.400649159382895</v>
+        <v>5.380342868056234</v>
       </c>
       <c r="E13">
-        <v>14.77599838110843</v>
+        <v>14.82152310587659</v>
       </c>
       <c r="F13">
-        <v>36.67350073334945</v>
+        <v>30.50595095764152</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.793048324084263</v>
+        <v>5.807964625038601</v>
       </c>
       <c r="I13">
-        <v>2.580991110441036</v>
+        <v>2.673930301434837</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>24.60022072954739</v>
+        <v>19.67901306176402</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>15.20521664153754</v>
       </c>
       <c r="M13">
-        <v>15.75872790104264</v>
+        <v>14.20971669769845</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>16.00391708315533</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.38627502838807</v>
+        <v>16.22710773893491</v>
       </c>
       <c r="C14">
-        <v>12.70879009746815</v>
+        <v>13.70565916907453</v>
       </c>
       <c r="D14">
-        <v>5.38171185375438</v>
+        <v>5.503411324213026</v>
       </c>
       <c r="E14">
-        <v>10.35392438627005</v>
+        <v>10.41830691587364</v>
       </c>
       <c r="F14">
-        <v>34.00443910108818</v>
+        <v>28.52268960900188</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.667087669702008</v>
+        <v>6.682191516607136</v>
       </c>
       <c r="I14">
-        <v>2.506049660475569</v>
+        <v>2.605336993858046</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>22.80579664141188</v>
+        <v>18.50863691200116</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>14.40348680724613</v>
       </c>
       <c r="M14">
-        <v>15.52970534576474</v>
+        <v>13.23109296384068</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.7569123910012</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.3100680150715</v>
+        <v>16.16084466912384</v>
       </c>
       <c r="C15">
-        <v>12.54724649518593</v>
+        <v>13.50596485295511</v>
       </c>
       <c r="D15">
-        <v>5.38813321800506</v>
+        <v>5.5372782448267</v>
       </c>
       <c r="E15">
-        <v>9.241720986407008</v>
+        <v>9.314138282856616</v>
       </c>
       <c r="F15">
-        <v>33.24456586802549</v>
+        <v>27.96588111864821</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.866741531615945</v>
+        <v>6.882102983948815</v>
       </c>
       <c r="I15">
-        <v>2.547593647990197</v>
+        <v>2.577982178087538</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>22.31758003719007</v>
+        <v>18.20319318362165</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>14.20385183029545</v>
       </c>
       <c r="M15">
-        <v>15.4253149878024</v>
+        <v>12.961001674157</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.647444228719</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.78673099502018</v>
+        <v>15.65673742560781</v>
       </c>
       <c r="C16">
-        <v>12.14053081465141</v>
+        <v>13.05408847583193</v>
       </c>
       <c r="D16">
-        <v>5.378440614954593</v>
+        <v>5.49163205676602</v>
       </c>
       <c r="E16">
-        <v>9.079160932062411</v>
+        <v>9.164384059047343</v>
       </c>
       <c r="F16">
-        <v>32.63735498664742</v>
+        <v>27.60575807702819</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.583579092965197</v>
+        <v>6.601572371616575</v>
       </c>
       <c r="I16">
-        <v>2.706436600509684</v>
+        <v>2.586299344348358</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>22.10304052723739</v>
+        <v>18.19003652365475</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>14.28153175068558</v>
       </c>
       <c r="M16">
-        <v>14.94699343659474</v>
+        <v>12.81991838017553</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.1662705557311</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.42345507218718</v>
+        <v>15.29149073971149</v>
       </c>
       <c r="C17">
-        <v>12.10779697206466</v>
+        <v>13.05939095517544</v>
       </c>
       <c r="D17">
-        <v>5.366439475010667</v>
+        <v>5.386340930969236</v>
       </c>
       <c r="E17">
-        <v>11.43507041173353</v>
+        <v>11.5140949528497</v>
       </c>
       <c r="F17">
-        <v>33.63381391406445</v>
+        <v>28.41432432568415</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.847317317985508</v>
+        <v>5.868178447028606</v>
       </c>
       <c r="I17">
-        <v>2.783707556774123</v>
+        <v>2.655525203854268</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>22.90077463667032</v>
+        <v>18.80206887625781</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.77674425388083</v>
       </c>
       <c r="M17">
-        <v>14.6989608298644</v>
+        <v>13.22915689590092</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.92631956069387</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.17047865963188</v>
+        <v>15.01676030938887</v>
       </c>
       <c r="C18">
-        <v>12.38802786194273</v>
+        <v>13.45745545852434</v>
       </c>
       <c r="D18">
-        <v>5.429724106092906</v>
+        <v>5.258875982366924</v>
       </c>
       <c r="E18">
-        <v>16.3100679131347</v>
+        <v>16.37602929429028</v>
       </c>
       <c r="F18">
-        <v>36.22543715116839</v>
+        <v>30.39662916746805</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.696603673844981</v>
+        <v>4.722030947846473</v>
       </c>
       <c r="I18">
-        <v>2.781216098615036</v>
+        <v>2.654570690297848</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>24.76289420991282</v>
+        <v>20.10199279371999</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>15.76094110742751</v>
       </c>
       <c r="M18">
-        <v>14.62846816956714</v>
+        <v>14.20463535042456</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.8744511533329</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.02476405992159</v>
+        <v>14.8359767420419</v>
       </c>
       <c r="C19">
-        <v>12.93772504034069</v>
+        <v>14.17197149744176</v>
       </c>
       <c r="D19">
-        <v>5.651143813007641</v>
+        <v>5.196905335657208</v>
       </c>
       <c r="E19">
-        <v>22.7901922597117</v>
+        <v>22.84356462710072</v>
       </c>
       <c r="F19">
-        <v>39.72173248376951</v>
+        <v>33.02848524594222</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.515050201794375</v>
+        <v>3.546664964504971</v>
       </c>
       <c r="I19">
-        <v>2.726484127246534</v>
+        <v>2.61491296332598</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>27.23955451807518</v>
+        <v>21.79217280971208</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>17.0233612179099</v>
       </c>
       <c r="M19">
-        <v>14.71861465873956</v>
+        <v>15.501087070663</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.98815505960708</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.21011673515861</v>
+        <v>14.94792920833498</v>
       </c>
       <c r="C20">
-        <v>14.12346384093347</v>
+        <v>15.64588329374349</v>
       </c>
       <c r="D20">
-        <v>6.261860590957038</v>
+        <v>5.290418921231491</v>
       </c>
       <c r="E20">
-        <v>33.07863150900344</v>
+        <v>33.10721214355117</v>
       </c>
       <c r="F20">
-        <v>45.79655004592475</v>
+        <v>37.53383218209498</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.025751247671251</v>
+        <v>3.049335029120922</v>
       </c>
       <c r="I20">
-        <v>2.527436435302321</v>
+        <v>2.610571960168521</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>31.49593693064532</v>
+        <v>24.63378452897695</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>19.06990246164234</v>
       </c>
       <c r="M20">
-        <v>15.24181700818304</v>
+        <v>17.77244010692941</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.54723968172674</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.13715443259187</v>
+        <v>15.81999397392522</v>
       </c>
       <c r="C21">
-        <v>15.12278495676674</v>
+        <v>16.7868263062906</v>
       </c>
       <c r="D21">
-        <v>6.427160043697021</v>
+        <v>5.325459953476736</v>
       </c>
       <c r="E21">
-        <v>35.95284666687187</v>
+        <v>35.95469476884983</v>
       </c>
       <c r="F21">
-        <v>48.505969375822</v>
+        <v>39.41638145338833</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.425704606728593</v>
+        <v>3.427183268719879</v>
       </c>
       <c r="I21">
-        <v>2.853401558686244</v>
+        <v>2.887797425632076</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>33.12411877322283</v>
+        <v>25.53272171182085</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>19.48938773311339</v>
       </c>
       <c r="M21">
-        <v>16.18736438571143</v>
+        <v>18.75929946826986</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>16.50413833040637</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.7281867698712</v>
+        <v>16.37768991958906</v>
       </c>
       <c r="C22">
-        <v>15.69331256000672</v>
+        <v>17.43739081798652</v>
       </c>
       <c r="D22">
-        <v>6.514643292650579</v>
+        <v>5.342622839274065</v>
       </c>
       <c r="E22">
-        <v>37.32203964985184</v>
+        <v>37.30592641467984</v>
       </c>
       <c r="F22">
-        <v>50.08519326723145</v>
+        <v>40.51643293629941</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3.664556857777014</v>
+        <v>3.651906790898277</v>
       </c>
       <c r="I22">
-        <v>3.054753582399174</v>
+        <v>3.056951241064781</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>34.07013539909812</v>
+        <v>26.05339482290266</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>19.71026353735422</v>
       </c>
       <c r="M22">
-        <v>16.76821217182591</v>
+        <v>19.35739476368344</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>17.09027637968709</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.42034289956254</v>
+        <v>16.08659081816453</v>
       </c>
       <c r="C23">
-        <v>15.37007000067413</v>
+        <v>17.07515025665102</v>
       </c>
       <c r="D23">
-        <v>6.484475235181978</v>
+        <v>5.339202567311622</v>
       </c>
       <c r="E23">
-        <v>36.59760468709075</v>
+        <v>36.59082836631641</v>
       </c>
       <c r="F23">
-        <v>49.35602460046152</v>
+        <v>40.01898041150379</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3.538587324195474</v>
+        <v>3.53321561508776</v>
       </c>
       <c r="I23">
-        <v>2.944394962299177</v>
+        <v>2.961942066032027</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839352</v>
       </c>
       <c r="K23">
-        <v>33.65869313027822</v>
+        <v>25.84653072624563</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>19.64455452196857</v>
       </c>
       <c r="M23">
-        <v>16.45734958964991</v>
+        <v>19.09287012467719</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.77713285418015</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.19655044022888</v>
+        <v>14.92922727785506</v>
       </c>
       <c r="C24">
-        <v>14.14060405299749</v>
+        <v>15.68444432748815</v>
       </c>
       <c r="D24">
-        <v>6.338023306933378</v>
+        <v>5.313217225105125</v>
       </c>
       <c r="E24">
-        <v>33.74516139857272</v>
+        <v>33.77219555344124</v>
       </c>
       <c r="F24">
-        <v>46.33114846060684</v>
+        <v>37.94533995976995</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.052960223989245</v>
+        <v>3.075257226190032</v>
       </c>
       <c r="I24">
-        <v>2.52742428690686</v>
+        <v>2.606004775330255</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>31.90753024772744</v>
+        <v>24.93186450912631</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>19.29579037562928</v>
       </c>
       <c r="M24">
-        <v>15.2398098488641</v>
+        <v>17.99670370212585</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.54803024789567</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.76899209929627</v>
+        <v>13.57711369469903</v>
       </c>
       <c r="C25">
-        <v>12.73067108450562</v>
+        <v>14.08318171112231</v>
       </c>
       <c r="D25">
-        <v>6.168002804548233</v>
+        <v>5.276668166665835</v>
       </c>
       <c r="E25">
-        <v>30.4351650040127</v>
+        <v>30.49490456263135</v>
       </c>
       <c r="F25">
-        <v>42.88476681585414</v>
+        <v>35.60564015180324</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.51317034261376</v>
+        <v>2.564870522667386</v>
       </c>
       <c r="I25">
-        <v>2.93107170453156</v>
+        <v>2.793227949224068</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>29.92359860299463</v>
+        <v>23.90769653815083</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>18.88112099894124</v>
       </c>
       <c r="M25">
-        <v>13.8287067967163</v>
+        <v>16.80875619967467</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>14.12016768766295</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
